--- a/Projeto - Diagrama/Projetoo.xlsx
+++ b/Projeto - Diagrama/Projetoo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Desktop\SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BB1CE-1521-486D-9E35-63C09D33FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F089CAE-3B43-491C-B1FE-2B7AC9CF03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Produto</t>
   </si>
@@ -119,6 +119,45 @@
   </si>
   <si>
     <t>Matheus</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Pietra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Larryssa</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Caio</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Thomaz</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>metodo</t>
   </si>
 </sst>
 </file>
@@ -128,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +206,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +282,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -250,40 +313,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Incorreto" xfId="4" builtinId="27"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -297,61 +362,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E5ED96-CC0B-F9FC-FC30-8AB4BCA1D62D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4791075" y="2095500"/>
-          <a:ext cx="3228975" cy="3228975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,424 +639,775 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f ca="1">TODAY()</f>
-        <v>44688</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>44690</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
-        <f>VLOOKUP(A5,$L$5:$M$11,2,FALSE)*B5</f>
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F24" si="0">VLOOKUP(A5,$M$5:$N$11,2,FALSE)*B5</f>
         <v>160</v>
       </c>
-      <c r="F5" s="10">
-        <f>IF(E5&gt;50,B5*M5-B5*M5*N5,M5*B5)</f>
+      <c r="G5" s="7">
+        <f>IF(F5&gt;50,B5*N5-B5*N5*O5,N5*B5)</f>
         <v>144</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="8">
         <v>80</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:C10" ca="1" si="0">TODAY()</f>
-        <v>44688</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C24" ca="1" si="1">TODAY()</f>
+        <v>44690</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9">
-        <f>VLOOKUP(A6,$L$5:$M$11,2,FALSE)*B6</f>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F6" s="10">
-        <f>IF(E6&gt;50,B6*M6-B6*M6*N6,M6*B6)</f>
+      <c r="G6" s="7">
+        <f>IF(F6&gt;50,B6*N6-B6*N6*O6,N6*B6)</f>
         <v>64</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="8">
         <v>40</v>
       </c>
-      <c r="N6" s="13">
+      <c r="O6" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
-        <f>VLOOKUP(A7,$L$5:$M$11,2,FALSE)*B7</f>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="F7" s="10">
-        <f>IF(E7&gt;50,B7*M7-B7*M7*N7,M7*B7)</f>
+      <c r="G7" s="7">
+        <f>IF(F7&gt;50,B7*N7-B7*N7*O7,N7*B7)</f>
         <v>285</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="8">
         <v>60</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
-        <f>VLOOKUP(A8,$L$5:$M$11,2,FALSE)*B8</f>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="F8" s="10">
-        <f>IF(E8&gt;50,B8*M8-B8*M8*N8,M8*B8)</f>
+      <c r="G8" s="7">
+        <f>IF(F8&gt;50,B8*N8-B8*N8*O8,N8*B8)</f>
         <v>152</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="8">
         <v>95</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9">
-        <f>VLOOKUP(A9,$L$5:$M$11,2,FALSE)*B9</f>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F9" s="10">
-        <f>IF(E9&gt;50,B9*M9-B9*M9*N9,M9*B9)</f>
+      <c r="G9" s="7">
+        <f>IF(F9&gt;50,B9*N9-B9*N9*O9,N9*B9)</f>
         <v>81</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="8">
         <v>90</v>
       </c>
-      <c r="N9" s="13">
+      <c r="O9" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9">
-        <f>VLOOKUP(A10,$L$5:$M$11,2,FALSE)*B10</f>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F10" s="10">
-        <f>IF(E10&gt;50,B10*M10-B10*M10*N10,M10*B10)</f>
+      <c r="G10" s="7">
+        <f>IF(F10&gt;50,B10*N10-B10*N10*O10,N10*B10)</f>
         <v>84</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="8">
+        <v>120</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="7">
+        <f>IF(F11&gt;50,B11*N11-B11*N11*O11,N11*B11)</f>
+        <v>60</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="8">
+        <v>100</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="7">
+        <f>IF(F12&gt;50,B12*N5-B12*N5*O5,B12*N5)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="12">
-        <v>120</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="12">
-        <v>100</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="P20" s="17"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G13" s="7">
+        <f>IF(F13&gt;50,B13*N6-B13*N6*O6,B13*N6)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="G14" s="7">
+        <f>IF(F14&gt;50,B14*N7-B14*N7*O7,B14*N7)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G15" s="7">
+        <f>IF(F15&gt;50,B15*N8-B15*N8*O8,B15*N8)</f>
+        <v>228</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G16" s="7">
+        <f>IF(F16&gt;50,B16*N9-B16*N9*O9,B16*N9)</f>
+        <v>405</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G17" s="7">
+        <f>IF(F17&gt;50,B17*N10-B17*N10*O10,B17*N10)</f>
+        <v>672</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G18" s="7">
+        <f>IF(F18&gt;50,B18*N11-B18*N11*O11,B18*N11)</f>
+        <v>360</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="G19" s="7">
+        <f>IF(F19&gt;50,B19*N5-B19*N5*O5,B19*N12)</f>
+        <v>288</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:G24" si="2">IF(F20&gt;50,B20*N6-B20*N6*O6,B20*N13)</f>
+        <v>224</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>44690</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A10" xr:uid="{3057F8F5-08F5-4690-80F6-94EF8E64DE13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A24" xr:uid="{3057F8F5-08F5-4690-80F6-94EF8E64DE13}">
       <formula1>"Calça Jeans,Calça Moletom, Blusa Moletom, Blusa, Camiseta, Tênis, Saltos"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D10" xr:uid="{05FA437F-0479-4DFF-9E99-755069A91E02}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E24" xr:uid="{05FA437F-0479-4DFF-9E99-755069A91E02}">
       <formula1>"Marcelo,Carlos,Maria,Julia,Ana,Beatriz, Victor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Projeto - Diagrama/Projetoo.xlsx
+++ b/Projeto - Diagrama/Projetoo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desenvolvimento\Desktop\SOP\Projeto - Diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F089CAE-3B43-491C-B1FE-2B7AC9CF03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00347BA-7C39-4B05-A16C-B0CE298BAD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -337,11 +337,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Incorreto" xfId="4" builtinId="27"/>
@@ -630,7 +630,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G21" sqref="G18:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,58 +648,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>160</v>
       </c>
       <c r="G5" s="7">
-        <f>IF(F5&gt;50,B5*N5-B5*N5*O5,N5*B5)</f>
+        <f t="shared" ref="G5:G11" si="1">IF(F5&gt;50,B5*N5-B5*N5*O5,N5*B5)</f>
         <v>144</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:C24" ca="1" si="1">TODAY()</f>
+        <f t="shared" ref="C6:C24" ca="1" si="2">TODAY()</f>
         <v>44690</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -760,7 +760,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="7">
-        <f>IF(F6&gt;50,B6*N6-B6*N6*O6,N6*B6)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -795,7 +795,7 @@
         <v>500</v>
       </c>
       <c r="G7" s="7">
-        <f>IF(F7&gt;50,B7*N7-B7*N7*O7,N7*B7)</f>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -830,7 +830,7 @@
         <v>190</v>
       </c>
       <c r="G8" s="7">
-        <f>IF(F8&gt;50,B8*N8-B8*N8*O8,N8*B8)</f>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -865,7 +865,7 @@
         <v>90</v>
       </c>
       <c r="G9" s="7">
-        <f>IF(F9&gt;50,B9*N9-B9*N9*O9,N9*B9)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -900,7 +900,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="7">
-        <f>IF(F10&gt;50,B10*N10-B10*N10*O10,N10*B10)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -935,7 +935,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="7">
-        <f>IF(F11&gt;50,B11*N11-B11*N11*O11,N11*B11)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="7">
-        <f>IF(F12&gt;50,B12*N5-B12*N5*O5,B12*N5)</f>
+        <f t="shared" ref="G12:G18" si="3">IF(F12&gt;50,B12*N5-B12*N5*O5,B12*N5)</f>
         <v>72</v>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -996,7 +996,7 @@
         <v>600</v>
       </c>
       <c r="G13" s="7">
-        <f>IF(F13&gt;50,B13*N6-B13*N6*O6,B13*N6)</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1022,7 +1022,7 @@
         <v>285</v>
       </c>
       <c r="G14" s="7">
-        <f>IF(F14&gt;50,B14*N7-B14*N7*O7,B14*N7)</f>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1048,7 +1048,7 @@
         <v>240</v>
       </c>
       <c r="G15" s="7">
-        <f>IF(F15&gt;50,B15*N8-B15*N8*O8,B15*N8)</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="I15" s="11"/>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1080,7 +1080,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="7">
-        <f>IF(F16&gt;50,B16*N9-B16*N9*O9,B16*N9)</f>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="I16" s="11"/>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1112,7 +1112,7 @@
         <v>960</v>
       </c>
       <c r="G17" s="7">
-        <f>IF(F17&gt;50,B17*N10-B17*N10*O10,B17*N10)</f>
+        <f t="shared" si="3"/>
         <v>672</v>
       </c>
       <c r="I17" s="11"/>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1144,7 +1144,7 @@
         <v>360</v>
       </c>
       <c r="G18" s="7">
-        <f>IF(F18&gt;50,B18*N11-B18*N11*O11,B18*N11)</f>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="I18" s="11"/>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1208,7 +1208,7 @@
         <v>840</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:G24" si="2">IF(F20&gt;50,B20*N6-B20*N6*O6,B20*N13)</f>
+        <f t="shared" ref="G20:G24" si="4">IF(F20&gt;50,B20*N6-B20*N6*O6,B20*N13)</f>
         <v>224</v>
       </c>
       <c r="I20" s="11"/>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1241,7 +1241,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="I21" s="11"/>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1273,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="I22" s="11"/>
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1305,7 +1305,7 @@
         <v>285</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="I23" s="11"/>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>44690</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1337,7 +1337,7 @@
         <v>90</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I24" s="11"/>
